--- a/database/FileExcel/DataSeeder.xlsx
+++ b/database/FileExcel/DataSeeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2DEBF9-D800-4521-B1D4-B24B43585396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34BFFF2-0CF7-4E15-8543-A8EDEBF32EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{19905B0D-1A8A-4576-91B2-29E87108E41B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{19905B0D-1A8A-4576-91B2-29E87108E41B}"/>
   </bookViews>
   <sheets>
     <sheet name="barang" sheetId="2" r:id="rId1"/>
@@ -34,50 +34,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>code_barang</t>
-  </si>
-  <si>
     <t>nama_barang</t>
   </si>
   <si>
-    <t>harga_barang</t>
-  </si>
-  <si>
-    <t>ukuran_barang</t>
-  </si>
-  <si>
-    <t>deskripsi_barang</t>
-  </si>
-  <si>
-    <t>gambar_barang</t>
-  </si>
-  <si>
     <t>created_by</t>
   </si>
   <si>
-    <t>id_admin</t>
-  </si>
-  <si>
-    <t>qty_awal</t>
-  </si>
-  <si>
     <t>qty</t>
   </si>
   <si>
     <t>Tees Anchor</t>
   </si>
   <si>
-    <t>qty_akhir</t>
-  </si>
-  <si>
-    <t>Coming soon</t>
-  </si>
-  <si>
     <t>tees1.jpg</t>
   </si>
   <si>
@@ -105,24 +78,6 @@
     <t>tees4.jpg</t>
   </si>
   <si>
-    <t>tees5.jpg</t>
-  </si>
-  <si>
-    <t>tees6.jpg</t>
-  </si>
-  <si>
-    <t>tees7.jpg</t>
-  </si>
-  <si>
-    <t>tees8.jpg</t>
-  </si>
-  <si>
-    <t>tees9.jpg</t>
-  </si>
-  <si>
-    <t>tees10.jpg</t>
-  </si>
-  <si>
     <t>XL</t>
   </si>
   <si>
@@ -190,6 +145,60 @@
   </si>
   <si>
     <t>updated_at</t>
+  </si>
+  <si>
+    <t>id_category</t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>deskripsi</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>gambar</t>
+  </si>
+  <si>
+    <t>status_stok</t>
+  </si>
+  <si>
+    <t>wb1.jpg</t>
+  </si>
+  <si>
+    <t>wb2.jpg</t>
+  </si>
+  <si>
+    <t>var1.jpg</t>
+  </si>
+  <si>
+    <t>mesh1.jpg</t>
+  </si>
+  <si>
+    <t>mesh2.jpg</t>
+  </si>
+  <si>
+    <t>mesh3.jpg</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>Dewa</t>
+  </si>
+  <si>
+    <t>lesanpuro</t>
+  </si>
+  <si>
+    <t>dewa@gmail.com</t>
+  </si>
+  <si>
+    <t>dewa</t>
   </si>
 </sst>
 </file>
@@ -239,10 +248,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -560,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D11C854-874A-442C-A5E8-60B8A1614FD1}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -584,46 +594,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -633,32 +634,29 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1020</v>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="3">
         <v>130000</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2">
-        <v>24</v>
+      <c r="G2" t="s">
+        <v>14</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -668,34 +666,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1021</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3">
         <v>130000</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>24</v>
+      <c r="G3" t="s">
+        <v>7</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -705,34 +700,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1022</v>
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3">
         <v>130000</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4">
-        <v>24</v>
+      <c r="G4" t="s">
+        <v>10</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -742,34 +734,31 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1023</v>
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3">
         <v>130000</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5">
-        <v>24</v>
+      <c r="G5" t="s">
+        <v>10</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="K5" t="s">
-        <v>22</v>
+      <c r="J5">
+        <v>1</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -779,34 +768,31 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>1024</v>
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3">
         <v>375000</v>
       </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>24</v>
+      <c r="G6" t="s">
+        <v>7</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" t="s">
-        <v>23</v>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -816,34 +802,31 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>1025</v>
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3">
         <v>375000</v>
       </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7">
-        <v>24</v>
+      <c r="G7" t="s">
+        <v>14</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
-      <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" t="s">
-        <v>24</v>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -853,34 +836,31 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>1026</v>
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3">
         <v>580000</v>
       </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8">
-        <v>24</v>
+      <c r="G8" t="s">
+        <v>15</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>25</v>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -890,34 +870,31 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>1027</v>
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9">
-        <v>110000</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" t="s">
-        <v>26</v>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -927,34 +904,31 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>1028</v>
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3">
         <v>110000</v>
       </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10">
-        <v>24</v>
+      <c r="G10" t="s">
+        <v>16</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" t="s">
-        <v>27</v>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -964,34 +938,31 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>1029</v>
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3">
         <v>110000</v>
       </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11">
-        <v>24</v>
+      <c r="G11" t="s">
+        <v>7</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" t="s">
-        <v>28</v>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1004,10 +975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70438512-BDA2-4AB2-AC10-8B37E45CDB24}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1020,37 +991,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="L1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1058,29 +1029,53 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>887411</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>12345678</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3">
+        <v>8888777</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3">
+        <v>12345678</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{578D3AF9-401E-48BF-ADEB-18D9BC4885F5}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{271B2D55-E728-4DB8-BA18-D7D1B3121D98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
